--- a/excel/xiaomi.xlsx
+++ b/excel/xiaomi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00DA4D4-A60A-4D97-B950-78CA2475276E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37535CB-4A8C-4A3E-9009-8D7F8370A96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1107">
   <si>
     <t>Модель</t>
   </si>
@@ -3595,6 +3595,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 20;9</t>
+  </si>
+  <si>
+    <t>callback_data</t>
+  </si>
+  <si>
+    <t>data_id</t>
+  </si>
+  <si>
+    <t>redmi_note_9</t>
   </si>
 </sst>
 </file>
@@ -3660,7 +3669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3699,6 +3708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3856,7 +3871,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4005,36 +4020,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4066,6 +4051,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4356,10 +4377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV61"/>
+  <dimension ref="A1:AW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="AT2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="181.5" customHeight="1"/>
@@ -4373,70 +4394,74 @@
     <col min="21" max="28" width="29.85546875" style="3" customWidth="1"/>
     <col min="29" max="38" width="66.85546875" style="12" customWidth="1"/>
     <col min="39" max="48" width="28.28515625" style="13" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="7"/>
+    <col min="49" max="49" width="14" style="71" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="23.25" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:49" ht="23.25" customHeight="1">
+      <c r="A1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="53" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="58" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59" t="s">
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="52"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="71" t="s">
+        <v>1104</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" ht="33.75" customHeight="1">
+    <row r="2" spans="1:49" ht="33.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4581,8 +4606,11 @@
       <c r="AV2" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="AW2" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" ht="181.5" customHeight="1">
+    <row r="3" spans="1:49" ht="181.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -4727,8 +4755,11 @@
       <c r="AV3" s="13" t="s">
         <v>93</v>
       </c>
+      <c r="AW3" s="71" t="s">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" ht="181.5" customHeight="1">
+    <row r="4" spans="1:49" ht="181.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -4874,7 +4905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="181.5" customHeight="1">
+    <row r="5" spans="1:49" ht="181.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -5020,7 +5051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="181.5" customHeight="1">
+    <row r="6" spans="1:49" ht="181.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>1029</v>
       </c>
@@ -5166,7 +5197,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="181.5" customHeight="1">
+    <row r="7" spans="1:49" ht="181.5" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>1030</v>
       </c>
@@ -5312,7 +5343,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="181.5" customHeight="1">
+    <row r="8" spans="1:49" ht="181.5" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>1031</v>
       </c>
@@ -5458,7 +5489,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="181.5" customHeight="1">
+    <row r="9" spans="1:49" ht="181.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>1032</v>
       </c>
@@ -5604,153 +5635,154 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="70" customFormat="1" ht="181.5" customHeight="1">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:49" s="60" customFormat="1" ht="181.5" customHeight="1">
+      <c r="A10" s="52" t="s">
         <v>1033</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="50" t="s">
         <v>1070</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="53" t="s">
         <v>948</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="53" t="s">
         <v>949</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="53" t="s">
         <v>648</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="53" t="s">
         <v>947</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="53" t="s">
         <v>973</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="54" t="s">
         <v>952</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="54" t="s">
         <v>953</v>
       </c>
-      <c r="O10" s="64" t="s">
+      <c r="O10" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="65">
+      <c r="P10" s="55">
         <v>0.84499999999999997</v>
       </c>
-      <c r="Q10" s="64" t="s">
+      <c r="Q10" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="54" t="s">
         <v>914</v>
       </c>
-      <c r="S10" s="64" t="s">
+      <c r="S10" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="T10" s="66" t="s">
+      <c r="T10" s="56" t="s">
         <v>955</v>
       </c>
-      <c r="U10" s="67" t="s">
+      <c r="U10" s="57" t="s">
         <v>930</v>
       </c>
-      <c r="V10" s="67" t="s">
+      <c r="V10" s="57" t="s">
         <v>967</v>
       </c>
-      <c r="W10" s="67" t="s">
+      <c r="W10" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="X10" s="67" t="s">
+      <c r="X10" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="Y10" s="67" t="s">
+      <c r="Y10" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="Z10" s="67" t="s">
+      <c r="Z10" s="57" t="s">
         <v>968</v>
       </c>
-      <c r="AA10" s="67" t="s">
+      <c r="AA10" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AB10" s="61" t="s">
+      <c r="AB10" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" s="68" t="s">
+      <c r="AC10" s="58" t="s">
         <v>958</v>
       </c>
-      <c r="AD10" s="68" t="s">
+      <c r="AD10" s="58" t="s">
         <v>974</v>
       </c>
-      <c r="AE10" s="68" t="s">
+      <c r="AE10" s="58" t="s">
         <v>942</v>
       </c>
-      <c r="AF10" s="68" t="s">
+      <c r="AF10" s="58" t="s">
         <v>945</v>
       </c>
-      <c r="AG10" s="68" t="s">
+      <c r="AG10" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AH10" s="68" t="s">
+      <c r="AH10" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="AI10" s="68">
+      <c r="AI10" s="58">
         <v>340010</v>
       </c>
-      <c r="AJ10" s="68">
+      <c r="AJ10" s="58">
         <v>310147</v>
       </c>
-      <c r="AK10" s="68">
+      <c r="AK10" s="58">
         <v>549</v>
       </c>
-      <c r="AL10" s="68">
+      <c r="AL10" s="58">
         <v>1722</v>
       </c>
-      <c r="AM10" s="69" t="s">
+      <c r="AM10" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN10" s="69" t="s">
+      <c r="AN10" s="59" t="s">
         <v>539</v>
       </c>
-      <c r="AO10" s="69" t="s">
+      <c r="AO10" s="59" t="s">
         <v>842</v>
       </c>
-      <c r="AP10" s="69" t="s">
+      <c r="AP10" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="AQ10" s="69" t="s">
+      <c r="AQ10" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="AR10" s="69" t="s">
+      <c r="AR10" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="AS10" s="69" t="s">
+      <c r="AS10" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="AT10" s="69" t="s">
+      <c r="AT10" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="AU10" s="69" t="s">
+      <c r="AU10" s="59" t="s">
         <v>645</v>
       </c>
-      <c r="AV10" s="69" t="s">
+      <c r="AV10" s="59" t="s">
         <v>93</v>
       </c>
+      <c r="AW10" s="72"/>
     </row>
-    <row r="11" spans="1:48" ht="181.5" customHeight="1">
+    <row r="11" spans="1:49" ht="181.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>1034</v>
       </c>
@@ -5896,7 +5928,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="181.5" customHeight="1">
+    <row r="12" spans="1:49" ht="181.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>118</v>
       </c>
@@ -6042,7 +6074,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="181.5" customHeight="1">
+    <row r="13" spans="1:49" ht="181.5" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>119</v>
       </c>
@@ -6188,7 +6220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="181.5" customHeight="1">
+    <row r="14" spans="1:49" ht="181.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>1035</v>
       </c>
@@ -6334,7 +6366,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="181.5" customHeight="1">
+    <row r="15" spans="1:49" ht="181.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>120</v>
       </c>
@@ -6480,7 +6512,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="181.5" customHeight="1">
+    <row r="16" spans="1:49" ht="181.5" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>121</v>
       </c>

--- a/excel/xiaomi.xlsx
+++ b/excel/xiaomi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST\159\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37535CB-4A8C-4A3E-9009-8D7F8370A96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2046BB0D-89F4-4CBB-B8DB-05A5370B43D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="15375" windowHeight="7875" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Xiaomi" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1106">
   <si>
     <t>Модель</t>
   </si>
@@ -2174,9 +2174,6 @@
     <t>2G / 3G / 4G / 5G</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Да, с A-GPS. Вплоть до tri-band: GLONASS (1), BDS (3), GALILEO (2), QZSS (2), NavIC</t>
   </si>
   <si>
@@ -3342,9 +3339,6 @@
     <t>MI 11</t>
   </si>
   <si>
-    <t xml:space="preserve">11T </t>
-  </si>
-  <si>
     <t>POCO C3</t>
   </si>
   <si>
@@ -3369,9 +3363,6 @@
     <t>POCO X3 NFC</t>
   </si>
   <si>
-    <t xml:space="preserve">POCO X3 GT </t>
-  </si>
-  <si>
     <t>Redmi Note 10</t>
   </si>
   <si>
@@ -3384,15 +3375,9 @@
     <t>Redmi Note 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Redmi Note 11S </t>
-  </si>
-  <si>
     <t>Redmi Note 11 Pro</t>
   </si>
   <si>
-    <t xml:space="preserve">Redmi 10 </t>
-  </si>
-  <si>
     <t>Redmi K40</t>
   </si>
   <si>
@@ -3444,27 +3429,12 @@
     <t>POCO M2 Pro</t>
   </si>
   <si>
-    <t xml:space="preserve">POCO M3 Pro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POCO X3 Pro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Pro  </t>
-  </si>
-  <si>
-    <t>12X</t>
-  </si>
-  <si>
     <t>Mix Fold</t>
   </si>
   <si>
     <t>Mix 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Mix 4 </t>
-  </si>
-  <si>
     <t>MI 10 Lite</t>
   </si>
   <si>
@@ -3501,9 +3471,6 @@
     <t>https://ibb.co/GxhxCQ1</t>
   </si>
   <si>
-    <t>https://ibb.co/dfBh7kz</t>
-  </si>
-  <si>
     <t>https://ibb.co/8YdfhwM</t>
   </si>
   <si>
@@ -3576,9 +3543,6 @@
     <t>https://ibb.co/d67kmNB</t>
   </si>
   <si>
-    <t>https://ibb.co/DMkHdGb</t>
-  </si>
-  <si>
     <t>https://ibb.co/Qc06RkQ</t>
   </si>
   <si>
@@ -3604,6 +3568,39 @@
   </si>
   <si>
     <t>redmi_note_9</t>
+  </si>
+  <si>
+    <t>Redmi Note 11S</t>
+  </si>
+  <si>
+    <t>Redmi 10</t>
+  </si>
+  <si>
+    <t>POCO X3 GT</t>
+  </si>
+  <si>
+    <t>POCO M3 Pro</t>
+  </si>
+  <si>
+    <t>11T</t>
+  </si>
+  <si>
+    <t>Mix 4</t>
+  </si>
+  <si>
+    <t>https://ibb.co/g7hxs9J</t>
+  </si>
+  <si>
+    <t>POCO X3 Pro</t>
+  </si>
+  <si>
+    <t>Mi 12</t>
+  </si>
+  <si>
+    <t>Mi 12 Pro</t>
+  </si>
+  <si>
+    <t>Mi 12X</t>
   </si>
 </sst>
 </file>
@@ -3871,7 +3868,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4053,6 +4050,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4081,12 +4096,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4377,10 +4386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW61"/>
+  <dimension ref="A1:AW62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="181.5" customHeight="1"/>
@@ -4394,71 +4403,71 @@
     <col min="21" max="28" width="29.85546875" style="3" customWidth="1"/>
     <col min="29" max="38" width="66.85546875" style="12" customWidth="1"/>
     <col min="39" max="48" width="28.28515625" style="13" customWidth="1"/>
-    <col min="49" max="49" width="14" style="71" customWidth="1"/>
+    <col min="49" max="49" width="14" style="65" customWidth="1"/>
     <col min="50" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="23.25" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="64" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="69" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="70" t="s">
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="71" t="s">
-        <v>1104</v>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="65" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="2" spans="1:49" ht="33.75" customHeight="1">
@@ -4606,8 +4615,8 @@
       <c r="AV2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AW2" s="71" t="s">
-        <v>1105</v>
+      <c r="AW2" s="65" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:49" ht="181.5" customHeight="1">
@@ -4755,8 +4764,8 @@
       <c r="AV3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AW3" s="71" t="s">
-        <v>1106</v>
+      <c r="AW3" s="65" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="181.5" customHeight="1">
@@ -5053,16 +5062,16 @@
     </row>
     <row r="6" spans="1:49" ht="181.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>909</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>910</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>648</v>
@@ -5071,7 +5080,7 @@
         <v>54</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>428</v>
@@ -5089,10 +5098,10 @@
         <v>60</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>160</v>
@@ -5104,19 +5113,19 @@
         <v>328</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>164</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>71</v>
@@ -5128,7 +5137,7 @@
         <v>107</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>146</v>
@@ -5137,22 +5146,22 @@
         <v>519</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD6" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="AE6" s="12" t="s">
         <v>918</v>
       </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AF6" s="12" t="s">
         <v>919</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>920</v>
       </c>
       <c r="AG6" s="12" t="s">
         <v>81</v>
       </c>
       <c r="AH6" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AI6" s="12">
         <v>277414</v>
@@ -5170,10 +5179,10 @@
         <v>83</v>
       </c>
       <c r="AN6" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AO6" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AP6" s="13" t="s">
         <v>278</v>
@@ -5185,13 +5194,13 @@
         <v>89</v>
       </c>
       <c r="AS6" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="AT6" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="AT6" s="13" t="s">
-        <v>923</v>
-      </c>
       <c r="AU6" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AV6" s="13" t="s">
         <v>541</v>
@@ -5199,31 +5208,31 @@
     </row>
     <row r="7" spans="1:49" ht="181.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>936</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>225</v>
@@ -5235,10 +5244,10 @@
         <v>60</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="O7" s="19" t="s">
         <v>63</v>
@@ -5250,31 +5259,31 @@
         <v>64</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>164</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>442</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>107</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>295</v>
@@ -5283,22 +5292,22 @@
         <v>76</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD7" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="AE7" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>942</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>943</v>
       </c>
       <c r="AG7" s="12" t="s">
         <v>81</v>
       </c>
       <c r="AH7" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AI7" s="12">
         <v>321021</v>
@@ -5328,7 +5337,7 @@
         <v>278</v>
       </c>
       <c r="AR7" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AS7" s="13" t="s">
         <v>521</v>
@@ -5337,7 +5346,7 @@
         <v>278</v>
       </c>
       <c r="AU7" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AV7" s="13" t="s">
         <v>281</v>
@@ -5345,31 +5354,31 @@
     </row>
     <row r="8" spans="1:49" ht="181.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>925</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>926</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>927</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>325</v>
@@ -5390,7 +5399,7 @@
         <v>160</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>328</v>
@@ -5402,13 +5411,13 @@
         <v>66</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>931</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>71</v>
@@ -5423,22 +5432,22 @@
         <v>630</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>233</v>
       </c>
       <c r="AC8" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="AD8" s="12" t="s">
         <v>751</v>
-      </c>
-      <c r="AD8" s="12" t="s">
-        <v>752</v>
       </c>
       <c r="AE8" s="12" t="s">
         <v>608</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AG8" s="12" t="s">
         <v>564</v>
@@ -5465,7 +5474,7 @@
         <v>539</v>
       </c>
       <c r="AO8" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AP8" s="13" t="s">
         <v>278</v>
@@ -5474,7 +5483,7 @@
         <v>88</v>
       </c>
       <c r="AR8" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AS8" s="13" t="s">
         <v>90</v>
@@ -5491,31 +5500,31 @@
     </row>
     <row r="9" spans="1:49" ht="181.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="48" t="s">
+        <v>946</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>950</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>947</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>951</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>268</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>325</v>
@@ -5527,10 +5536,10 @@
         <v>326</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>160</v>
@@ -5542,19 +5551,19 @@
         <v>328</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>164</v>
       </c>
       <c r="T9" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>956</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>71</v>
@@ -5566,7 +5575,7 @@
         <v>107</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AA9" s="46" t="s">
         <v>146</v>
@@ -5575,13 +5584,13 @@
         <v>76</v>
       </c>
       <c r="AC9" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="AD9" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="AD9" s="12" t="s">
+      <c r="AE9" s="12" t="s">
         <v>959</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>960</v>
       </c>
       <c r="AF9" s="12" t="s">
         <v>591</v>
@@ -5590,7 +5599,7 @@
         <v>81</v>
       </c>
       <c r="AH9" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AI9" s="12">
         <v>248639</v>
@@ -5611,7 +5620,7 @@
         <v>86</v>
       </c>
       <c r="AO9" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AP9" s="13" t="s">
         <v>88</v>
@@ -5637,25 +5646,25 @@
     </row>
     <row r="10" spans="1:49" s="60" customFormat="1" ht="181.5" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>1033</v>
+        <v>1095</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="C10" s="53" t="s">
+        <v>947</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>948</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>949</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>648</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>428</v>
@@ -5673,10 +5682,10 @@
         <v>60</v>
       </c>
       <c r="M10" s="54" t="s">
+        <v>951</v>
+      </c>
+      <c r="N10" s="54" t="s">
         <v>952</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>953</v>
       </c>
       <c r="O10" s="54" t="s">
         <v>160</v>
@@ -5688,19 +5697,19 @@
         <v>64</v>
       </c>
       <c r="R10" s="54" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="S10" s="54" t="s">
         <v>164</v>
       </c>
       <c r="T10" s="56" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="U10" s="57" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V10" s="57" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="W10" s="57" t="s">
         <v>313</v>
@@ -5712,7 +5721,7 @@
         <v>374</v>
       </c>
       <c r="Z10" s="57" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AA10" s="57" t="s">
         <v>146</v>
@@ -5721,16 +5730,16 @@
         <v>76</v>
       </c>
       <c r="AC10" s="58" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AD10" s="58" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AE10" s="58" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF10" s="58" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AG10" s="58" t="s">
         <v>81</v>
@@ -5757,7 +5766,7 @@
         <v>539</v>
       </c>
       <c r="AO10" s="59" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AP10" s="59" t="s">
         <v>278</v>
@@ -5780,35 +5789,35 @@
       <c r="AV10" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="AW10" s="72"/>
+      <c r="AW10" s="66"/>
     </row>
     <row r="11" spans="1:49" ht="181.5" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>963</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>964</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>268</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>343</v>
@@ -5820,10 +5829,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>160</v>
@@ -5841,13 +5850,13 @@
         <v>66</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>71</v>
@@ -5859,7 +5868,7 @@
         <v>73</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AA11" s="46" t="s">
         <v>146</v>
@@ -5868,16 +5877,16 @@
         <v>76</v>
       </c>
       <c r="AC11" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="AD11" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="AD11" s="12" t="s">
-        <v>970</v>
-      </c>
       <c r="AE11" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AG11" s="12" t="s">
         <v>449</v>
@@ -5898,13 +5907,13 @@
         <v>1706</v>
       </c>
       <c r="AM11" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AN11" s="13" t="s">
         <v>539</v>
       </c>
       <c r="AO11" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AP11" s="13" t="s">
         <v>88</v>
@@ -5913,7 +5922,7 @@
         <v>88</v>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AS11" s="13" t="s">
         <v>243</v>
@@ -6222,34 +6231,34 @@
     </row>
     <row r="14" spans="1:49" ht="181.5" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>1035</v>
+        <v>1096</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1072</v>
+        <v>1101</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>872</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>873</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>268</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>59</v>
@@ -6258,10 +6267,10 @@
         <v>326</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>63</v>
@@ -6273,19 +6282,19 @@
         <v>328</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>164</v>
       </c>
       <c r="T14" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>881</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>71</v>
@@ -6297,7 +6306,7 @@
         <v>586</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AA14" s="46" t="s">
         <v>146</v>
@@ -6309,7 +6318,7 @@
         <v>631</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AE14" s="12" t="s">
         <v>111</v>
@@ -6321,7 +6330,7 @@
         <v>81</v>
       </c>
       <c r="AH14" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AI14" s="12">
         <v>220963</v>
@@ -6342,7 +6351,7 @@
         <v>86</v>
       </c>
       <c r="AO14" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AP14" s="13" t="s">
         <v>88</v>
@@ -6360,7 +6369,7 @@
         <v>315</v>
       </c>
       <c r="AU14" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AV14" s="13" t="s">
         <v>620</v>
@@ -6952,16 +6961,16 @@
     </row>
     <row r="19" spans="1:48" ht="181.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>885</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>155</v>
@@ -6970,13 +6979,13 @@
         <v>199</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>887</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>888</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>343</v>
@@ -6997,7 +7006,7 @@
         <v>63</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>328</v>
@@ -7009,25 +7018,25 @@
         <v>228</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>584</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Z19" s="31" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AA19" s="3" t="s">
         <v>146</v>
@@ -7036,13 +7045,13 @@
         <v>233</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD19" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="AE19" s="12" t="s">
         <v>702</v>
-      </c>
-      <c r="AE19" s="12" t="s">
-        <v>703</v>
       </c>
       <c r="AF19" s="12" t="s">
         <v>393</v>
@@ -7051,7 +7060,7 @@
         <v>315</v>
       </c>
       <c r="AH19" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AI19" s="12">
         <v>722864</v>
@@ -7084,7 +7093,7 @@
         <v>238</v>
       </c>
       <c r="AS19" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AT19" s="13" t="s">
         <v>88</v>
@@ -7098,16 +7107,16 @@
     </row>
     <row r="20" spans="1:48" ht="181.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>155</v>
@@ -7116,13 +7125,13 @@
         <v>199</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>893</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>814</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>894</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>343</v>
@@ -7143,7 +7152,7 @@
         <v>160</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>64</v>
@@ -7155,25 +7164,25 @@
         <v>66</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>291</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>295</v>
@@ -7182,13 +7191,13 @@
         <v>233</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD20" s="12" t="s">
         <v>500</v>
       </c>
       <c r="AE20" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF20" s="12" t="s">
         <v>642</v>
@@ -7197,7 +7206,7 @@
         <v>91</v>
       </c>
       <c r="AH20" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AI20" s="12">
         <v>821847</v>
@@ -7215,7 +7224,7 @@
         <v>83</v>
       </c>
       <c r="AN20" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AO20" s="13" t="s">
         <v>381</v>
@@ -7239,36 +7248,36 @@
         <v>280</v>
       </c>
       <c r="AV20" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="181.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>904</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>905</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>246</v>
@@ -7289,7 +7298,7 @@
         <v>160</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>328</v>
@@ -7301,31 +7310,31 @@
         <v>228</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>272</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>185</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AC21" s="12" t="s">
         <v>631</v>
@@ -7343,7 +7352,7 @@
         <v>91</v>
       </c>
       <c r="AH21" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AI21" s="12">
         <v>688989</v>
@@ -7361,7 +7370,7 @@
         <v>83</v>
       </c>
       <c r="AN21" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AO21" s="13" t="s">
         <v>381</v>
@@ -7376,7 +7385,7 @@
         <v>238</v>
       </c>
       <c r="AS21" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AT21" s="13" t="s">
         <v>88</v>
@@ -7385,12 +7394,12 @@
         <v>645</v>
       </c>
       <c r="AV21" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="181.5" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>470</v>
@@ -7533,7 +7542,7 @@
     </row>
     <row r="23" spans="1:48" ht="181.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>470</v>
@@ -7676,7 +7685,7 @@
     </row>
     <row r="24" spans="1:48" ht="181.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>471</v>
@@ -7819,31 +7828,31 @@
     </row>
     <row r="25" spans="1:48" ht="181.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>715</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>343</v>
@@ -7864,7 +7873,7 @@
         <v>63</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>64</v>
@@ -7873,25 +7882,25 @@
         <v>65</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>291</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA25" s="3" t="s">
         <v>146</v>
@@ -7900,7 +7909,7 @@
         <v>76</v>
       </c>
       <c r="AC25" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AD25" s="12" t="s">
         <v>500</v>
@@ -7915,7 +7924,7 @@
         <v>315</v>
       </c>
       <c r="AH25" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AI25" s="12">
         <v>611235</v>
@@ -7954,7 +7963,7 @@
         <v>278</v>
       </c>
       <c r="AU25" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AV25" s="13" t="s">
         <v>636</v>
@@ -7962,31 +7971,31 @@
     </row>
     <row r="26" spans="1:48" ht="181.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="C26" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>726</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>727</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>343</v>
@@ -8007,7 +8016,7 @@
         <v>160</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>64</v>
@@ -8016,25 +8025,25 @@
         <v>65</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U26" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>333</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>295</v>
@@ -8043,13 +8052,13 @@
         <v>519</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AD26" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="AE26" s="12" t="s">
         <v>702</v>
-      </c>
-      <c r="AE26" s="12" t="s">
-        <v>703</v>
       </c>
       <c r="AF26" s="12" t="s">
         <v>393</v>
@@ -8091,13 +8100,13 @@
         <v>238</v>
       </c>
       <c r="AS26" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AT26" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AU26" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AV26" s="13" t="s">
         <v>504</v>
@@ -8105,28 +8114,28 @@
     </row>
     <row r="27" spans="1:48" ht="181.5" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="F27" s="48" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>733</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>401</v>
@@ -8150,7 +8159,7 @@
         <v>63</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>328</v>
@@ -8159,25 +8168,25 @@
         <v>329</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>272</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>295</v>
@@ -8186,13 +8195,13 @@
         <v>76</v>
       </c>
       <c r="AC27" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD27" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="AD27" s="12" t="s">
+      <c r="AE27" s="12" t="s">
         <v>737</v>
-      </c>
-      <c r="AE27" s="12" t="s">
-        <v>738</v>
       </c>
       <c r="AF27" s="12" t="s">
         <v>642</v>
@@ -8201,7 +8210,7 @@
         <v>315</v>
       </c>
       <c r="AH27" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AI27" s="12">
         <v>887334</v>
@@ -8240,7 +8249,7 @@
         <v>278</v>
       </c>
       <c r="AU27" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AV27" s="13" t="s">
         <v>504</v>
@@ -8248,7 +8257,7 @@
     </row>
     <row r="28" spans="1:48" ht="181.5" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>472</v>
@@ -8394,7 +8403,7 @@
     </row>
     <row r="29" spans="1:48" ht="181.5" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>473</v>
@@ -8540,7 +8549,7 @@
     </row>
     <row r="30" spans="1:48" ht="181.5" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>474</v>
@@ -8686,7 +8695,7 @@
     </row>
     <row r="31" spans="1:48" ht="181.5" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>478</v>
@@ -8832,7 +8841,7 @@
     </row>
     <row r="32" spans="1:48" ht="181.5" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>475</v>
@@ -8978,7 +8987,7 @@
     </row>
     <row r="33" spans="1:48" ht="181.5" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>476</v>
@@ -9124,7 +9133,7 @@
     </row>
     <row r="34" spans="1:48" ht="181.5" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>477</v>
@@ -9270,7 +9279,7 @@
     </row>
     <row r="35" spans="1:48" ht="181.5" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>479</v>
@@ -9416,10 +9425,10 @@
     </row>
     <row r="36" spans="1:48" ht="181.5" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>505</v>
@@ -9562,10 +9571,10 @@
     </row>
     <row r="37" spans="1:48" ht="181.5" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>480</v>
@@ -9708,10 +9717,10 @@
     </row>
     <row r="38" spans="1:48" ht="181.5" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>1019</v>
+        <v>1099</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>621</v>
@@ -9854,10 +9863,10 @@
     </row>
     <row r="39" spans="1:48" ht="181.5" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>637</v>
@@ -10000,31 +10009,31 @@
     </row>
     <row r="40" spans="1:48" ht="181.5" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="F40" s="48" t="s">
-        <v>769</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>744</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>225</v>
@@ -10036,34 +10045,34 @@
         <v>626</v>
       </c>
       <c r="M40" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="O40" s="19" t="s">
         <v>63</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q40" s="19" t="s">
         <v>328</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>272</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W40" s="3" t="s">
         <v>207</v>
@@ -10084,13 +10093,13 @@
         <v>233</v>
       </c>
       <c r="AC40" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="AD40" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="AD40" s="12" t="s">
+      <c r="AE40" s="12" t="s">
         <v>752</v>
-      </c>
-      <c r="AE40" s="12" t="s">
-        <v>753</v>
       </c>
       <c r="AF40" s="12" t="s">
         <v>80</v>
@@ -10132,7 +10141,7 @@
         <v>89</v>
       </c>
       <c r="AS40" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AT40" s="13" t="s">
         <v>88</v>
@@ -10146,25 +10155,25 @@
     </row>
     <row r="41" spans="1:48" ht="181.5" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>384</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>268</v>
@@ -10194,28 +10203,28 @@
         <v>489</v>
       </c>
       <c r="Q41" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>255</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>260</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>209</v>
@@ -10227,7 +10236,7 @@
         <v>75</v>
       </c>
       <c r="AB41" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AC41" s="12" t="s">
         <v>631</v>
@@ -10266,7 +10275,7 @@
         <v>215</v>
       </c>
       <c r="AO41" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AP41" s="13" t="s">
         <v>278</v>
@@ -10275,10 +10284,10 @@
         <v>278</v>
       </c>
       <c r="AR41" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="AS41" s="13" t="s">
         <v>765</v>
-      </c>
-      <c r="AS41" s="13" t="s">
-        <v>766</v>
       </c>
       <c r="AT41" s="13" t="s">
         <v>278</v>
@@ -10292,31 +10301,31 @@
     </row>
     <row r="42" spans="1:48" ht="181.5" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>770</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>325</v>
@@ -10337,31 +10346,31 @@
         <v>63</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>490</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>492</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>260</v>
       </c>
       <c r="V42" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="W42" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>774</v>
-      </c>
       <c r="X42" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>209</v>
@@ -10373,7 +10382,7 @@
         <v>75</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AC42" s="12" t="s">
         <v>631</v>
@@ -10421,10 +10430,10 @@
         <v>278</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AS42" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>278</v>
@@ -10438,10 +10447,10 @@
     </row>
     <row r="43" spans="1:48" ht="181.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>522</v>
@@ -10584,10 +10593,10 @@
     </row>
     <row r="44" spans="1:48" ht="181.5" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>542</v>
@@ -10730,16 +10739,16 @@
     </row>
     <row r="45" spans="1:48" ht="181.5" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>155</v>
@@ -10748,13 +10757,13 @@
         <v>199</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>325</v>
@@ -10775,7 +10784,7 @@
         <v>160</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>64</v>
@@ -10787,25 +10796,25 @@
         <v>66</v>
       </c>
       <c r="T45" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="V45" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>817</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X45" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>295</v>
@@ -10814,13 +10823,13 @@
         <v>377</v>
       </c>
       <c r="AC45" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AD45" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="AE45" s="12" t="s">
         <v>702</v>
-      </c>
-      <c r="AE45" s="12" t="s">
-        <v>703</v>
       </c>
       <c r="AF45" s="12" t="s">
         <v>393</v>
@@ -10862,7 +10871,7 @@
         <v>238</v>
       </c>
       <c r="AS45" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AT45" s="13" t="s">
         <v>278</v>
@@ -10876,28 +10885,28 @@
     </row>
     <row r="46" spans="1:48" ht="181.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="F46" s="48" t="s">
         <v>199</v>
       </c>
       <c r="G46" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>826</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>439</v>
@@ -10918,10 +10927,10 @@
         <v>62</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>64</v>
@@ -10933,31 +10942,31 @@
         <v>66</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>291</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>185</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>374</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>75</v>
       </c>
       <c r="AB46" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AC46" s="12" t="s">
         <v>499</v>
@@ -11022,10 +11031,10 @@
     </row>
     <row r="47" spans="1:48" ht="181.5" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>554</v>
@@ -11168,10 +11177,10 @@
     </row>
     <row r="48" spans="1:48" ht="181.5" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>567</v>
@@ -11314,10 +11323,10 @@
     </row>
     <row r="49" spans="1:48" ht="181.5" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>578</v>
@@ -11457,28 +11466,28 @@
     </row>
     <row r="50" spans="1:48" ht="181.5" customHeight="1">
       <c r="A50" s="35" t="s">
-        <v>1053</v>
+        <v>1098</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="C50" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="E50" s="38" t="s">
         <v>975</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>976</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>199</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="34" t="s">
@@ -11491,46 +11500,46 @@
         <v>326</v>
       </c>
       <c r="M50" s="34" t="s">
+        <v>834</v>
+      </c>
+      <c r="N50" s="34" t="s">
+        <v>977</v>
+      </c>
+      <c r="O50" s="34" t="s">
+        <v>978</v>
+      </c>
+      <c r="P50" s="34" t="s">
         <v>835</v>
       </c>
-      <c r="N50" s="34" t="s">
-        <v>978</v>
-      </c>
-      <c r="O50" s="34" t="s">
+      <c r="Q50" s="34" t="s">
         <v>979</v>
       </c>
-      <c r="P50" s="34" t="s">
+      <c r="R50" s="34" t="s">
+        <v>980</v>
+      </c>
+      <c r="S50" s="34" t="s">
+        <v>981</v>
+      </c>
+      <c r="T50" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="Q50" s="34" t="s">
-        <v>980</v>
-      </c>
-      <c r="R50" s="34" t="s">
-        <v>981</v>
-      </c>
-      <c r="S50" s="34" t="s">
+      <c r="U50" s="36" t="s">
         <v>982</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="V50" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="W50" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="X50" s="36" t="s">
         <v>837</v>
       </c>
-      <c r="U50" s="36" t="s">
-        <v>983</v>
-      </c>
-      <c r="V50" s="36" t="s">
+      <c r="Y50" s="36" t="s">
         <v>984</v>
       </c>
-      <c r="W50" s="36" t="s">
-        <v>684</v>
-      </c>
-      <c r="X50" s="36" t="s">
-        <v>838</v>
-      </c>
-      <c r="Y50" s="36" t="s">
+      <c r="Z50" s="36" t="s">
         <v>985</v>
-      </c>
-      <c r="Z50" s="36" t="s">
-        <v>986</v>
       </c>
       <c r="AA50" s="36" t="s">
         <v>588</v>
@@ -11539,19 +11548,19 @@
         <v>76</v>
       </c>
       <c r="AC50" s="37" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AD50" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="AE50" s="37" t="s">
+        <v>986</v>
+      </c>
+      <c r="AF50" s="37" t="s">
+        <v>987</v>
+      </c>
+      <c r="AG50" s="37" t="s">
         <v>840</v>
-      </c>
-      <c r="AE50" s="37" t="s">
-        <v>987</v>
-      </c>
-      <c r="AF50" s="37" t="s">
-        <v>988</v>
-      </c>
-      <c r="AG50" s="37" t="s">
-        <v>841</v>
       </c>
       <c r="AH50" s="37" t="s">
         <v>82</v>
@@ -11575,7 +11584,7 @@
         <v>86</v>
       </c>
       <c r="AO50" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AP50" s="13" t="s">
         <v>88</v>
@@ -11593,7 +11602,7 @@
         <v>88</v>
       </c>
       <c r="AU50" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AV50" s="13" t="s">
         <v>281</v>
@@ -11601,10 +11610,10 @@
     </row>
     <row r="51" spans="1:48" ht="181.5" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>593</v>
@@ -11747,10 +11756,10 @@
     </row>
     <row r="52" spans="1:48" ht="181.5" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>599</v>
@@ -11893,10 +11902,10 @@
     </row>
     <row r="53" spans="1:48" ht="181.5" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>610</v>
@@ -12039,31 +12048,31 @@
     </row>
     <row r="54" spans="1:48" ht="181.5" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>1028</v>
+        <v>1097</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>849</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>268</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>58</v>
@@ -12075,40 +12084,40 @@
         <v>60</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>160</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>64</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>255</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>272</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>73</v>
@@ -12120,16 +12129,16 @@
         <v>75</v>
       </c>
       <c r="AB54" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC54" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="AC54" s="12" t="s">
+      <c r="AD54" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="AD54" s="12" t="s">
+      <c r="AE54" s="12" t="s">
         <v>858</v>
-      </c>
-      <c r="AE54" s="12" t="s">
-        <v>859</v>
       </c>
       <c r="AF54" s="12" t="s">
         <v>236</v>
@@ -12171,39 +12180,39 @@
         <v>238</v>
       </c>
       <c r="AS54" s="13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AT54" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AU54" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AV54" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:48" ht="181.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>1054</v>
+        <v>1102</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>863</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>864</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>614</v>
@@ -12239,22 +12248,22 @@
         <v>329</v>
       </c>
       <c r="S55" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="T55" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>69</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="W55" s="3" t="s">
         <v>185</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Y55" s="3" t="s">
         <v>209</v>
@@ -12272,10 +12281,10 @@
         <v>244</v>
       </c>
       <c r="AD55" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="AE55" s="12" t="s">
         <v>869</v>
-      </c>
-      <c r="AE55" s="12" t="s">
-        <v>870</v>
       </c>
       <c r="AF55" s="12" t="s">
         <v>245</v>
@@ -12330,11 +12339,11 @@
       </c>
     </row>
     <row r="56" spans="1:48" ht="181.5" customHeight="1">
-      <c r="A56" s="8">
-        <v>12</v>
+      <c r="A56" s="8" t="s">
+        <v>1103</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>646</v>
@@ -12357,6 +12366,9 @@
       <c r="I56" s="4" t="s">
         <v>652</v>
       </c>
+      <c r="J56" s="61" t="s">
+        <v>259</v>
+      </c>
       <c r="K56" s="1" t="s">
         <v>59</v>
       </c>
@@ -12448,7 +12460,7 @@
         <v>669</v>
       </c>
       <c r="AO56" s="13" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="AP56" s="13" t="s">
         <v>278</v>
@@ -12460,7 +12472,7 @@
         <v>238</v>
       </c>
       <c r="AS56" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AT56" s="13" t="s">
         <v>88</v>
@@ -12469,33 +12481,33 @@
         <v>280</v>
       </c>
       <c r="AV56" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:48" ht="181.5" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>507</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>401</v>
@@ -12510,43 +12522,43 @@
         <v>626</v>
       </c>
       <c r="M57" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>160</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>490</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>255</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>260</v>
       </c>
       <c r="V57" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="W57" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="X57" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="Y57" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>663</v>
@@ -12555,16 +12567,16 @@
         <v>75</v>
       </c>
       <c r="AB57" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="AC57" s="12" t="s">
         <v>687</v>
-      </c>
-      <c r="AC57" s="12" t="s">
-        <v>688</v>
       </c>
       <c r="AD57" s="12" t="s">
         <v>665</v>
       </c>
       <c r="AE57" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF57" s="12" t="s">
         <v>667</v>
@@ -12606,7 +12618,7 @@
         <v>238</v>
       </c>
       <c r="AS57" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AT57" s="13" t="s">
         <v>278</v>
@@ -12615,15 +12627,15 @@
         <v>280</v>
       </c>
       <c r="AV57" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:48" ht="181.5" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>1056</v>
+        <v>1105</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>646</v>
@@ -12632,22 +12644,22 @@
         <v>647</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>674</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="F58" s="48" t="s">
-        <v>675</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>692</v>
-      </c>
       <c r="H58" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>696</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>181</v>
@@ -12659,7 +12671,7 @@
         <v>653</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>160</v>
@@ -12677,19 +12689,19 @@
         <v>255</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>260</v>
       </c>
       <c r="V58" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>662</v>
@@ -12704,13 +12716,13 @@
         <v>498</v>
       </c>
       <c r="AC58" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="AD58" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="AD58" s="12" t="s">
+      <c r="AE58" s="12" t="s">
         <v>702</v>
-      </c>
-      <c r="AE58" s="12" t="s">
-        <v>703</v>
       </c>
       <c r="AF58" s="12" t="s">
         <v>213</v>
@@ -12752,7 +12764,7 @@
         <v>434</v>
       </c>
       <c r="AS58" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AT58" s="13" t="s">
         <v>278</v>
@@ -12761,39 +12773,39 @@
         <v>280</v>
       </c>
       <c r="AV58" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="59" spans="1:48" ht="181.5" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="J59" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>59</v>
@@ -12802,46 +12814,46 @@
         <v>402</v>
       </c>
       <c r="M59" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="S59" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>456</v>
       </c>
       <c r="V59" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="W59" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="X59" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>795</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>209</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>75</v>
@@ -12865,7 +12877,7 @@
         <v>91</v>
       </c>
       <c r="AH59" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AI59" s="12">
         <v>815000</v>
@@ -12898,45 +12910,45 @@
         <v>257</v>
       </c>
       <c r="AS59" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AT59" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AU59" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AV59" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="60" spans="1:48" ht="181.5" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="C60" s="45" t="s">
+        <v>989</v>
+      </c>
+      <c r="D60" s="45" t="s">
         <v>990</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="E60" s="45" t="s">
         <v>991</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="F60" s="45" t="s">
         <v>992</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="G60" s="45" t="s">
         <v>993</v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="H60" s="45" t="s">
         <v>994</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="I60" s="45" t="s">
         <v>995</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>996</v>
       </c>
       <c r="J60" s="41" t="s">
         <v>203</v>
@@ -12948,22 +12960,22 @@
         <v>60</v>
       </c>
       <c r="M60" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="N60" s="41" t="s">
         <v>997</v>
-      </c>
-      <c r="N60" s="41" t="s">
-        <v>998</v>
       </c>
       <c r="O60" s="41" t="s">
         <v>103</v>
       </c>
       <c r="P60" s="41" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="Q60" s="41" t="s">
         <v>105</v>
       </c>
       <c r="R60" s="41" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="S60" s="41" t="s">
         <v>66</v>
@@ -12972,22 +12984,22 @@
         <v>146</v>
       </c>
       <c r="U60" s="43" t="s">
+        <v>1001</v>
+      </c>
+      <c r="V60" s="43" t="s">
         <v>1002</v>
-      </c>
-      <c r="V60" s="43" t="s">
-        <v>1003</v>
       </c>
       <c r="W60" s="43" t="s">
         <v>71</v>
       </c>
       <c r="X60" s="43" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Y60" s="43" t="s">
         <v>1004</v>
       </c>
-      <c r="Y60" s="43" t="s">
+      <c r="Z60" s="43" t="s">
         <v>1005</v>
-      </c>
-      <c r="Z60" s="43" t="s">
-        <v>1006</v>
       </c>
       <c r="AA60" s="43" t="s">
         <v>166</v>
@@ -12996,22 +13008,22 @@
         <v>76</v>
       </c>
       <c r="AC60" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AD60" s="44" t="s">
         <v>1007</v>
       </c>
-      <c r="AD60" s="44" t="s">
+      <c r="AE60" s="44" t="s">
         <v>1008</v>
       </c>
-      <c r="AE60" s="44" t="s">
+      <c r="AF60" s="44" t="s">
         <v>1009</v>
-      </c>
-      <c r="AF60" s="44" t="s">
-        <v>1010</v>
       </c>
       <c r="AG60" s="44" t="s">
         <v>91</v>
       </c>
       <c r="AH60" s="44" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AI60" s="44">
         <v>350208</v>
@@ -13032,7 +13044,7 @@
         <v>194</v>
       </c>
       <c r="AO60" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AP60" s="13" t="s">
         <v>88</v>
@@ -13041,7 +13053,7 @@
         <v>88</v>
       </c>
       <c r="AR60" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AS60" s="13" t="s">
         <v>218</v>
@@ -13050,125 +13062,125 @@
         <v>88</v>
       </c>
       <c r="AU60" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AV60" s="13" t="s">
         <v>1014</v>
-      </c>
-      <c r="AV60" s="13" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="61" spans="1:48" ht="181.5" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>1059</v>
+      <c r="A61" s="62" t="s">
+        <v>1100</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C61" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="D61" s="48" t="s">
         <v>799</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="48" t="s">
         <v>800</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="G61" s="48" t="s">
         <v>801</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="I61" s="48" t="s">
         <v>802</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="61" t="s">
         <v>626</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="61" t="s">
         <v>62</v>
       </c>
       <c r="O61" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="61" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q61" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="R61" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="S61" s="61" t="s">
+        <v>492</v>
+      </c>
+      <c r="T61" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="T61" s="2" t="s">
+      <c r="U61" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="V61" s="63" t="s">
         <v>805</v>
       </c>
-      <c r="U61" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="V61" s="3" t="s">
+      <c r="W61" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="X61" s="63" t="s">
         <v>806</v>
       </c>
-      <c r="W61" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="X61" s="3" t="s">
+      <c r="Y61" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z61" s="63" t="s">
         <v>807</v>
       </c>
-      <c r="Y61" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z61" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="AA61" s="3" t="s">
+      <c r="AA61" s="63" t="s">
         <v>146</v>
       </c>
       <c r="AB61" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AC61" s="12" t="s">
+      <c r="AC61" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="AD61" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="AE61" s="12" t="s">
+      <c r="AD61" s="64" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE61" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF61" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG61" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH61" s="64" t="s">
         <v>809</v>
       </c>
-      <c r="AF61" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="AG61" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH61" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="AI61" s="12">
+      <c r="AI61" s="64">
         <v>834678</v>
       </c>
-      <c r="AJ61" s="47">
+      <c r="AJ61" s="64">
         <v>801483</v>
       </c>
-      <c r="AK61" s="12">
+      <c r="AK61" s="64">
         <v>728</v>
       </c>
-      <c r="AL61" s="12">
+      <c r="AL61" s="64">
         <v>2784</v>
       </c>
       <c r="AM61" s="13" t="s">
@@ -13196,11 +13208,17 @@
         <v>278</v>
       </c>
       <c r="AU61" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AV61" s="13" t="s">
         <v>258</v>
       </c>
+    </row>
+    <row r="62" spans="1:48" ht="181.5" customHeight="1">
+      <c r="B62" s="22"/>
+      <c r="O62" s="19"/>
+      <c r="AB62" s="17"/>
+      <c r="AJ62" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13255,56 +13273,56 @@
     <hyperlink ref="AB38" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="AB25" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="AB27" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AB61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AB46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AB55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="X14" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AB14" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AB7" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="X9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AB9" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="X11" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AB11" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="AB10" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AB50" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AB60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AA39" r:id="rId57" display="1080p@30fps" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B6" r:id="rId58" xr:uid="{AC3B8BDE-18F8-4DFF-9DAC-349C826DE976}"/>
-    <hyperlink ref="B7" r:id="rId59" xr:uid="{4E693B00-217B-4B6C-BA12-9C8CDF7530A8}"/>
-    <hyperlink ref="B8" r:id="rId60" xr:uid="{846EA960-890C-4220-82D9-0019F1ACF189}"/>
-    <hyperlink ref="B9" r:id="rId61" xr:uid="{D2D2435A-E62C-4540-B9C4-87A2081DF0B3}"/>
-    <hyperlink ref="B10" r:id="rId62" xr:uid="{C9D46574-380D-4CFD-A8F9-CC22D0B10E37}"/>
-    <hyperlink ref="B11" r:id="rId63" xr:uid="{E09C94A3-C157-4F52-924C-0D4104C55E98}"/>
-    <hyperlink ref="B14" r:id="rId64" xr:uid="{5355F0B2-3588-43C5-9B59-9657D15DE98D}"/>
-    <hyperlink ref="B19" r:id="rId65" xr:uid="{562AF306-8A5E-4A40-8C4A-825483383829}"/>
-    <hyperlink ref="B20" r:id="rId66" xr:uid="{B4D9E00F-D022-4A4A-8CD6-C3415E70A115}"/>
-    <hyperlink ref="B21" r:id="rId67" xr:uid="{4CEDEE22-88F0-4A3B-BA49-ADA2EF7AD1A4}"/>
-    <hyperlink ref="B36" r:id="rId68" xr:uid="{7AD5335C-40A8-455E-999C-AE3AC1B7CBF9}"/>
-    <hyperlink ref="B37" r:id="rId69" xr:uid="{D6380D71-9583-4A55-BE7A-A19F4DBF150E}"/>
-    <hyperlink ref="B38" r:id="rId70" xr:uid="{A3B72889-F9EA-4CDF-A061-B3EACC18220B}"/>
-    <hyperlink ref="B39" r:id="rId71" xr:uid="{EB1DA1C7-6BDE-4650-BD1C-3ADA24A3469D}"/>
-    <hyperlink ref="B40" r:id="rId72" xr:uid="{BA0879F2-2425-4541-A90E-B2F97E10B4DB}"/>
-    <hyperlink ref="B41" r:id="rId73" xr:uid="{ACA9FC9A-20E6-43D2-BF61-AB80EDD1AAE3}"/>
-    <hyperlink ref="B42" r:id="rId74" xr:uid="{C5EB28AE-1227-424E-86D3-2E8E5A01C3EA}"/>
-    <hyperlink ref="B43" r:id="rId75" xr:uid="{34EBEE6F-A7F1-4274-8589-A6D4445096AF}"/>
-    <hyperlink ref="B44" r:id="rId76" xr:uid="{5D33B420-E8BF-45FE-BA7D-BC893D74DAED}"/>
-    <hyperlink ref="B45" r:id="rId77" xr:uid="{100C234B-42DF-4510-95F0-C6FB91DE74D0}"/>
-    <hyperlink ref="B46" r:id="rId78" xr:uid="{A5189BBB-81EB-4202-8592-E5251CF17D5D}"/>
-    <hyperlink ref="B47" r:id="rId79" xr:uid="{4563B83C-4008-4295-BA5E-7744F5B82115}"/>
-    <hyperlink ref="B48" r:id="rId80" xr:uid="{9E0E7C4A-076F-44E7-8E2F-99CF77EF2434}"/>
-    <hyperlink ref="B49" r:id="rId81" xr:uid="{3CFF7EF1-508C-48B5-B02B-873F4A2F5596}"/>
-    <hyperlink ref="B50" r:id="rId82" xr:uid="{F37DE3FF-D958-49FE-AEA5-C0FD91F6785B}"/>
-    <hyperlink ref="B51" r:id="rId83" xr:uid="{CB1D3DE8-2E4E-4DEC-82D7-7275E1D3FA64}"/>
-    <hyperlink ref="B52" r:id="rId84" xr:uid="{4F976164-F587-42D6-AB29-B566518A4F23}"/>
-    <hyperlink ref="B53" r:id="rId85" xr:uid="{2521BFFE-D9E2-4FF1-8625-8879CA4BC8D5}"/>
-    <hyperlink ref="B54" r:id="rId86" xr:uid="{0E0DE8E9-1176-4267-9604-6AE68F894F29}"/>
-    <hyperlink ref="B55" r:id="rId87" xr:uid="{53F0FD87-CB83-443A-93DD-F3C96ED82741}"/>
-    <hyperlink ref="B56" r:id="rId88" xr:uid="{4221A03D-4072-4C43-9911-1D9348932BA5}"/>
-    <hyperlink ref="B57" r:id="rId89" xr:uid="{EF629381-D6C5-4B2A-B180-E26C185F57F8}"/>
-    <hyperlink ref="B58" r:id="rId90" xr:uid="{F1551CEA-CFD5-40D1-BD00-949944EF4A98}"/>
-    <hyperlink ref="B59" r:id="rId91" xr:uid="{13A412F3-49AB-413B-BB63-357C585FD7C2}"/>
-    <hyperlink ref="B60" r:id="rId92" xr:uid="{9A01FBF6-82DC-4294-BD7F-CC5FDFB65D6A}"/>
-    <hyperlink ref="B61" r:id="rId93" xr:uid="{DE028BA0-61C1-4889-B17D-851B613693F5}"/>
+    <hyperlink ref="AB46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AB55" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="X14" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AB14" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AB7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="X9" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AB9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="X11" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AB11" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AB10" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AB50" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AB60" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AA39" r:id="rId56" display="1080p@30fps" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B6" r:id="rId57" xr:uid="{AC3B8BDE-18F8-4DFF-9DAC-349C826DE976}"/>
+    <hyperlink ref="B7" r:id="rId58" xr:uid="{4E693B00-217B-4B6C-BA12-9C8CDF7530A8}"/>
+    <hyperlink ref="B8" r:id="rId59" xr:uid="{846EA960-890C-4220-82D9-0019F1ACF189}"/>
+    <hyperlink ref="B9" r:id="rId60" xr:uid="{D2D2435A-E62C-4540-B9C4-87A2081DF0B3}"/>
+    <hyperlink ref="B10" r:id="rId61" xr:uid="{C9D46574-380D-4CFD-A8F9-CC22D0B10E37}"/>
+    <hyperlink ref="B11" r:id="rId62" xr:uid="{E09C94A3-C157-4F52-924C-0D4104C55E98}"/>
+    <hyperlink ref="B14" r:id="rId63" xr:uid="{5355F0B2-3588-43C5-9B59-9657D15DE98D}"/>
+    <hyperlink ref="B19" r:id="rId64" xr:uid="{562AF306-8A5E-4A40-8C4A-825483383829}"/>
+    <hyperlink ref="B20" r:id="rId65" xr:uid="{B4D9E00F-D022-4A4A-8CD6-C3415E70A115}"/>
+    <hyperlink ref="B21" r:id="rId66" xr:uid="{4CEDEE22-88F0-4A3B-BA49-ADA2EF7AD1A4}"/>
+    <hyperlink ref="B36" r:id="rId67" xr:uid="{7AD5335C-40A8-455E-999C-AE3AC1B7CBF9}"/>
+    <hyperlink ref="B37" r:id="rId68" xr:uid="{D6380D71-9583-4A55-BE7A-A19F4DBF150E}"/>
+    <hyperlink ref="B38" r:id="rId69" xr:uid="{A3B72889-F9EA-4CDF-A061-B3EACC18220B}"/>
+    <hyperlink ref="B39" r:id="rId70" xr:uid="{EB1DA1C7-6BDE-4650-BD1C-3ADA24A3469D}"/>
+    <hyperlink ref="B40" r:id="rId71" xr:uid="{BA0879F2-2425-4541-A90E-B2F97E10B4DB}"/>
+    <hyperlink ref="B41" r:id="rId72" xr:uid="{ACA9FC9A-20E6-43D2-BF61-AB80EDD1AAE3}"/>
+    <hyperlink ref="B42" r:id="rId73" xr:uid="{C5EB28AE-1227-424E-86D3-2E8E5A01C3EA}"/>
+    <hyperlink ref="B43" r:id="rId74" xr:uid="{34EBEE6F-A7F1-4274-8589-A6D4445096AF}"/>
+    <hyperlink ref="B44" r:id="rId75" xr:uid="{5D33B420-E8BF-45FE-BA7D-BC893D74DAED}"/>
+    <hyperlink ref="B45" r:id="rId76" xr:uid="{100C234B-42DF-4510-95F0-C6FB91DE74D0}"/>
+    <hyperlink ref="B46" r:id="rId77" xr:uid="{A5189BBB-81EB-4202-8592-E5251CF17D5D}"/>
+    <hyperlink ref="B47" r:id="rId78" xr:uid="{4563B83C-4008-4295-BA5E-7744F5B82115}"/>
+    <hyperlink ref="B48" r:id="rId79" xr:uid="{9E0E7C4A-076F-44E7-8E2F-99CF77EF2434}"/>
+    <hyperlink ref="B49" r:id="rId80" xr:uid="{3CFF7EF1-508C-48B5-B02B-873F4A2F5596}"/>
+    <hyperlink ref="B50" r:id="rId81" xr:uid="{F37DE3FF-D958-49FE-AEA5-C0FD91F6785B}"/>
+    <hyperlink ref="B51" r:id="rId82" xr:uid="{CB1D3DE8-2E4E-4DEC-82D7-7275E1D3FA64}"/>
+    <hyperlink ref="B52" r:id="rId83" xr:uid="{4F976164-F587-42D6-AB29-B566518A4F23}"/>
+    <hyperlink ref="B53" r:id="rId84" xr:uid="{2521BFFE-D9E2-4FF1-8625-8879CA4BC8D5}"/>
+    <hyperlink ref="B54" r:id="rId85" xr:uid="{0E0DE8E9-1176-4267-9604-6AE68F894F29}"/>
+    <hyperlink ref="B55" r:id="rId86" xr:uid="{53F0FD87-CB83-443A-93DD-F3C96ED82741}"/>
+    <hyperlink ref="B57" r:id="rId87" xr:uid="{EF629381-D6C5-4B2A-B180-E26C185F57F8}"/>
+    <hyperlink ref="B58" r:id="rId88" xr:uid="{F1551CEA-CFD5-40D1-BD00-949944EF4A98}"/>
+    <hyperlink ref="B59" r:id="rId89" xr:uid="{13A412F3-49AB-413B-BB63-357C585FD7C2}"/>
+    <hyperlink ref="B60" r:id="rId90" xr:uid="{9A01FBF6-82DC-4294-BD7F-CC5FDFB65D6A}"/>
+    <hyperlink ref="AB61" r:id="rId91" xr:uid="{B461F14B-DC61-4D39-96F9-CB5836E72368}"/>
+    <hyperlink ref="B61" r:id="rId92" xr:uid="{4BE3FB39-847A-4CB5-B80B-5AEC37CE69DB}"/>
+    <hyperlink ref="B56" r:id="rId93" xr:uid="{FE91371B-A94B-4C38-90FA-1DF2FE5F30DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>

--- a/excel/xiaomi.xlsx
+++ b/excel/xiaomi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST\159\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2046BB0D-89F4-4CBB-B8DB-05A5370B43D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F525FE-2DFF-4B39-A064-154D3E9282D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="15375" windowHeight="7875" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Xiaomi" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1107">
   <si>
     <t>Модель</t>
   </si>
@@ -3601,6 +3601,9 @@
   </si>
   <si>
     <t>Mi 12X</t>
+  </si>
+  <si>
+    <t>260 EUR</t>
   </si>
 </sst>
 </file>
@@ -4388,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="181.5" customHeight="1"/>
@@ -11346,6 +11349,9 @@
       <c r="H49" s="4" t="s">
         <v>581</v>
       </c>
+      <c r="I49" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="J49" s="1" t="s">
         <v>136</v>
       </c>
@@ -11489,7 +11495,9 @@
       <c r="H50" s="38" t="s">
         <v>976</v>
       </c>
-      <c r="I50" s="38"/>
+      <c r="I50" s="38" t="s">
+        <v>1106</v>
+      </c>
       <c r="J50" s="34" t="s">
         <v>136</v>
       </c>
